--- a/medicine/Mort/Cimetière_de_Mirogoj/Cimetière_de_Mirogoj.xlsx
+++ b/medicine/Mort/Cimetière_de_Mirogoj/Cimetière_de_Mirogoj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mirogoj</t>
+          <t>Cimetière_de_Mirogoj</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Mirogoj ([mîrɔɡɔːj]) est un cimetière situé à Zagreb, la capitale de la Croatie.
 Considéré comme l'un des monuments les plus remarquables de la ville de Zagreb, le cimetière regroupe des défunts de tous les groupes religieux, aussi bien catholiques, orthodoxes, musulmans, juifs, protestants, saints des derniers jours que des tombes irréligieuses. Dans les arcades sont regroupées les sépultures de nombreux Croates célèbres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mirogoj</t>
+          <t>Cimetière_de_Mirogoj</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Inhumations notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Samuel David Alexander
 Zlatko Baloković, violoniste
 Ena Begović (en) (1960–2000), actrice croate ;
-Hermann Bollé[1], architecte autrichien
-Ivana Brlić-Mažuranić[2], écrivain
+Hermann Bollé, architecte autrichien
+Ivana Brlić-Mažuranić, écrivain
 Ferdinand Budicki, pionnier du transport aérien et automobile à Zagreb
-Krešimir Ćosić[3], membre du Naismith Memorial Basketball Hall of Fame et du FIBA Hall of Fame
+Krešimir Ćosić, membre du Naismith Memorial Basketball Hall of Fame et du FIBA Hall of Fame
 Arsen Dedić, auteur-compositeur-interprète et compositeur
 Dimitrija Demeter, d'origine grecque, a joué un rôle majeur dans le mouvement pour le réveil national de la nation croate
 Filip Deutsch, noble et industriel
@@ -533,30 +547,30 @@
 Leo Hönigsberg, architecte croate et copropriétaire du studio d'architecture Hönigsberg &amp; Deutsch
 Hosea Jacobi, grand-rabbin de Zagreb
 Rade Končar
-Miroslav Krleža[4], écrivain
+Miroslav Krleža, écrivain
 Oton Kučera, astronome
 Zinka Kunc (Milanov), soprano
 Svetozar Kurepa, mathématicien
-Ante Kovačić[5], écrivain de la région traditionnelle Hrvatsko Zagorje
+Ante Kovačić, écrivain de la région traditionnelle Hrvatsko Zagorje
 Zofka Kveder (1878-1926), écrivaine
 Matko Laginja, juriste et homme politique
-Vatroslav Lisinski[6], compositeur
-Vladko Maček[7], homme politique, cosignataire de l'accord Cvetković-Maček
+Vatroslav Lisinski, compositeur
+Vladko Maček, homme politique, cosignataire de l'accord Cvetković-Maček
 Savić Marković Štedimlija, publiciste monténégrin-croate.
 Antun Gustav Matoš, écrivain
 Ivan Mažuranić
 Andrija Mohorovičić (1857-1936), météorologue et pionnier de la sismologie
-Edo Murtić[8], peintre
-Vladimir Nazor[9], écrivain et premier président de la République populaire / République socialiste de Croatie
+Edo Murtić, peintre
+Vladimir Nazor, écrivain et premier président de la République populaire / République socialiste de Croatie
 Maximilian Njegovan, commandant en chef et amiral de la Marine austro-hongroise
 Rudolf Perešin
-Dražen Petrović[10], membre des Hall of Fame de Naismith et de la FIBA
+Dražen Petrović, membre des Hall of Fame de Naismith et de la FIBA
 Đuro Prejac
-Vladimir Prelog[11], chimiste, lauréat du prix Nobel
+Vladimir Prelog, chimiste, lauréat du prix Nobel
 Danijel Premerl
 Petar Preradović, poète
 Maja Bošković-Stulli, slaviste et folkloriste
-Stjepan Radić[12], dirigeant du Parti paysan croate (HSS)
+Stjepan Radić, dirigeant du Parti paysan croate (HSS)
 Ivan Ribar
 Ivan Kukuljević Sakcinski
 Lavoslav Schwarz, philanthrope
@@ -565,11 +579,11 @@
 Ivan Šubašić, dernier ban de Croatie
 Milka Trnina, soprano
 Franjo Tuđman, le premier président de la république de Croatie
-Vice Vukov[5], chanteur et homme politique
-Tin Ujević[13], poète
+Vice Vukov, chanteur et homme politique
+Tin Ujević, poète
 Emil Uzelac, chef de l'armée de l'air austro-hongroise
 Marija Jurić Zagorka
-Ivan Zajc[14], compositeur</t>
+Ivan Zajc, compositeur</t>
         </is>
       </c>
     </row>
